--- a/2.xlsx
+++ b/2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valen\Desktop\ENS Paris\2024-2025\Metrics 2b\hw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B055BCB-62E9-4C66-B07E-A68887D39DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
     <sheet name="Table Data" sheetId="3" r:id="rId3"/>
     <sheet name="Table Keys" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -60,7 +66,7 @@
     <t>Period</t>
   </si>
   <si>
-    <t>2001-Q2</t>
+    <t>2000-Q3</t>
   </si>
   <si>
     <t>Dimension</t>
@@ -173,430 +179,430 @@
     <t>Annual change (%)</t>
   </si>
   <si>
-    <t>2000-Q4</t>
-  </si>
-  <si>
-    <t>2001-Q1</t>
+    <t>2000-Q1</t>
+  </si>
+  <si>
+    <t>2000-Q2</t>
   </si>
   <si>
     <t>Borrowers outside United States</t>
   </si>
   <si>
-    <t>Q.USD.3P.N.A.I.B.USD.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.B.USD.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.B.USD.2001-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.B.771.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.B.771.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.B.771.2001-Q2</t>
+    <t>Q.USD.3P.N.A.I.B.USD.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.B.USD.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.B.USD.2000-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.B.771.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.B.771.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.B.771.2000-Q3</t>
   </si>
   <si>
     <t>Of which: emerging market and developing economies</t>
   </si>
   <si>
-    <t>Q.USD.4T.N.A.I.B.USD.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.B.USD.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.B.USD.2001-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.B.771.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.B.771.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.B.771.2001-Q2</t>
+    <t>Q.USD.4T.N.A.I.B.USD.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.B.USD.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.B.USD.2000-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.B.771.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.B.771.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.B.771.2000-Q3</t>
   </si>
   <si>
     <t>Africa and Middle East</t>
   </si>
   <si>
-    <t>Q.USD.4W.N.A.I.B.USD.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4W.N.A.I.B.USD.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4W.N.A.I.B.USD.2001-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.4W.N.A.I.B.771.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4W.N.A.I.B.771.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4W.N.A.I.B.771.2001-Q2</t>
+    <t>Q.USD.4W.N.A.I.B.USD.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4W.N.A.I.B.USD.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4W.N.A.I.B.USD.2000-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.4W.N.A.I.B.771.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4W.N.A.I.B.771.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4W.N.A.I.B.771.2000-Q3</t>
   </si>
   <si>
     <t>Saudi Arabia</t>
   </si>
   <si>
-    <t>Q.USD.SA.N.A.I.B.USD.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.SA.N.A.I.B.USD.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.SA.N.A.I.B.USD.2001-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.SA.N.A.I.B.771.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.SA.N.A.I.B.771.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.SA.N.A.I.B.771.2001-Q2</t>
+    <t>Q.USD.SA.N.A.I.B.USD.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.SA.N.A.I.B.USD.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.SA.N.A.I.B.USD.2000-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.SA.N.A.I.B.771.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.SA.N.A.I.B.771.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.SA.N.A.I.B.771.2000-Q3</t>
   </si>
   <si>
     <t>South Africa</t>
   </si>
   <si>
-    <t>Q.USD.ZA.N.A.I.B.USD.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.ZA.N.A.I.B.USD.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.ZA.N.A.I.B.USD.2001-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.ZA.N.A.I.B.771.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.ZA.N.A.I.B.771.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.ZA.N.A.I.B.771.2001-Q2</t>
+    <t>Q.USD.ZA.N.A.I.B.USD.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.ZA.N.A.I.B.USD.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.ZA.N.A.I.B.USD.2000-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.ZA.N.A.I.B.771.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.ZA.N.A.I.B.771.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.ZA.N.A.I.B.771.2000-Q3</t>
   </si>
   <si>
     <t>Emerging Asia and Pacific</t>
   </si>
   <si>
-    <t>Q.USD.4Y.N.A.I.B.USD.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4Y.N.A.I.B.USD.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4Y.N.A.I.B.USD.2001-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.4Y.N.A.I.B.771.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4Y.N.A.I.B.771.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4Y.N.A.I.B.771.2001-Q2</t>
+    <t>Q.USD.4Y.N.A.I.B.USD.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4Y.N.A.I.B.USD.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4Y.N.A.I.B.USD.2000-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.4Y.N.A.I.B.771.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4Y.N.A.I.B.771.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4Y.N.A.I.B.771.2000-Q3</t>
   </si>
   <si>
     <t>China</t>
   </si>
   <si>
-    <t>Q.USD.CN.N.A.I.B.USD.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.CN.N.A.I.B.USD.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.CN.N.A.I.B.USD.2001-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.CN.N.A.I.B.771.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.CN.N.A.I.B.771.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.CN.N.A.I.B.771.2001-Q2</t>
+    <t>Q.USD.CN.N.A.I.B.USD.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.CN.N.A.I.B.USD.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.CN.N.A.I.B.USD.2000-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.CN.N.A.I.B.771.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.CN.N.A.I.B.771.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.CN.N.A.I.B.771.2000-Q3</t>
   </si>
   <si>
     <t>Chinese Taipei</t>
   </si>
   <si>
-    <t>Q.USD.TW.N.A.I.B.USD.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.TW.N.A.I.B.USD.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.TW.N.A.I.B.USD.2001-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.TW.N.A.I.B.771.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.TW.N.A.I.B.771.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.TW.N.A.I.B.771.2001-Q2</t>
+    <t>Q.USD.TW.N.A.I.B.USD.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.TW.N.A.I.B.USD.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.TW.N.A.I.B.USD.2000-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.TW.N.A.I.B.771.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.TW.N.A.I.B.771.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.TW.N.A.I.B.771.2000-Q3</t>
   </si>
   <si>
     <t>India</t>
   </si>
   <si>
-    <t>Q.USD.IN.N.A.I.B.USD.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.IN.N.A.I.B.USD.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.IN.N.A.I.B.USD.2001-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.IN.N.A.I.B.771.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.IN.N.A.I.B.771.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.IN.N.A.I.B.771.2001-Q2</t>
+    <t>Q.USD.IN.N.A.I.B.USD.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.IN.N.A.I.B.USD.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.IN.N.A.I.B.USD.2000-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.IN.N.A.I.B.771.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.IN.N.A.I.B.771.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.IN.N.A.I.B.771.2000-Q3</t>
   </si>
   <si>
     <t>Indonesia</t>
   </si>
   <si>
-    <t>Q.USD.ID.N.A.I.B.USD.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.ID.N.A.I.B.USD.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.ID.N.A.I.B.USD.2001-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.ID.N.A.I.B.771.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.ID.N.A.I.B.771.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.ID.N.A.I.B.771.2001-Q2</t>
+    <t>Q.USD.ID.N.A.I.B.USD.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.ID.N.A.I.B.USD.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.ID.N.A.I.B.USD.2000-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.ID.N.A.I.B.771.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.ID.N.A.I.B.771.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.ID.N.A.I.B.771.2000-Q3</t>
   </si>
   <si>
     <t>Korea</t>
   </si>
   <si>
-    <t>Q.USD.KR.N.A.I.B.USD.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.KR.N.A.I.B.USD.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.KR.N.A.I.B.USD.2001-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.KR.N.A.I.B.771.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.KR.N.A.I.B.771.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.KR.N.A.I.B.771.2001-Q2</t>
+    <t>Q.USD.KR.N.A.I.B.USD.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.KR.N.A.I.B.USD.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.KR.N.A.I.B.USD.2000-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.KR.N.A.I.B.771.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.KR.N.A.I.B.771.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.KR.N.A.I.B.771.2000-Q3</t>
   </si>
   <si>
     <t>Malaysia</t>
   </si>
   <si>
-    <t>Q.USD.MY.N.A.I.B.USD.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.MY.N.A.I.B.USD.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.MY.N.A.I.B.USD.2001-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.MY.N.A.I.B.771.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.MY.N.A.I.B.771.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.MY.N.A.I.B.771.2001-Q2</t>
+    <t>Q.USD.MY.N.A.I.B.USD.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.MY.N.A.I.B.USD.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.MY.N.A.I.B.USD.2000-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.MY.N.A.I.B.771.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.MY.N.A.I.B.771.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.MY.N.A.I.B.771.2000-Q3</t>
   </si>
   <si>
     <t>Emerging Europe</t>
   </si>
   <si>
-    <t>Q.USD.3C.N.A.I.B.USD.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3C.N.A.I.B.USD.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.3C.N.A.I.B.USD.2001-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.3C.N.A.I.B.771.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3C.N.A.I.B.771.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.3C.N.A.I.B.771.2001-Q2</t>
+    <t>Q.USD.3C.N.A.I.B.USD.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3C.N.A.I.B.USD.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.3C.N.A.I.B.USD.2000-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.3C.N.A.I.B.771.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3C.N.A.I.B.771.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.3C.N.A.I.B.771.2000-Q3</t>
   </si>
   <si>
     <t>Russia</t>
   </si>
   <si>
-    <t>Q.USD.RU.N.A.I.B.USD.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.RU.N.A.I.B.USD.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.RU.N.A.I.B.USD.2001-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.RU.N.A.I.B.771.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.RU.N.A.I.B.771.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.RU.N.A.I.B.771.2001-Q2</t>
+    <t>Q.USD.RU.N.A.I.B.USD.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.RU.N.A.I.B.USD.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.RU.N.A.I.B.USD.2000-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.RU.N.A.I.B.771.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.RU.N.A.I.B.771.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.RU.N.A.I.B.771.2000-Q3</t>
   </si>
   <si>
     <t>Türkiye</t>
   </si>
   <si>
-    <t>Q.USD.TR.N.A.I.B.USD.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.TR.N.A.I.B.USD.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.TR.N.A.I.B.USD.2001-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.TR.N.A.I.B.771.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.TR.N.A.I.B.771.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.TR.N.A.I.B.771.2001-Q2</t>
+    <t>Q.USD.TR.N.A.I.B.USD.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.TR.N.A.I.B.USD.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.TR.N.A.I.B.USD.2000-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.TR.N.A.I.B.771.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.TR.N.A.I.B.771.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.TR.N.A.I.B.771.2000-Q3</t>
   </si>
   <si>
     <t>Latin America</t>
   </si>
   <si>
-    <t>Q.USD.4U.N.A.I.B.USD.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4U.N.A.I.B.USD.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4U.N.A.I.B.USD.2001-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.4U.N.A.I.B.771.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4U.N.A.I.B.771.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4U.N.A.I.B.771.2001-Q2</t>
+    <t>Q.USD.4U.N.A.I.B.USD.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4U.N.A.I.B.USD.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4U.N.A.I.B.USD.2000-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.4U.N.A.I.B.771.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4U.N.A.I.B.771.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4U.N.A.I.B.771.2000-Q3</t>
   </si>
   <si>
     <t>Argentina</t>
   </si>
   <si>
-    <t>Q.USD.AR.N.A.I.B.USD.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.AR.N.A.I.B.USD.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.AR.N.A.I.B.USD.2001-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.AR.N.A.I.B.771.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.AR.N.A.I.B.771.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.AR.N.A.I.B.771.2001-Q2</t>
+    <t>Q.USD.AR.N.A.I.B.USD.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.AR.N.A.I.B.USD.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.AR.N.A.I.B.USD.2000-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.AR.N.A.I.B.771.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.AR.N.A.I.B.771.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.AR.N.A.I.B.771.2000-Q3</t>
   </si>
   <si>
     <t>Brazil</t>
   </si>
   <si>
-    <t>Q.USD.BR.N.A.I.B.USD.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.BR.N.A.I.B.USD.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.BR.N.A.I.B.USD.2001-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.BR.N.A.I.B.771.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.BR.N.A.I.B.771.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.BR.N.A.I.B.771.2001-Q2</t>
+    <t>Q.USD.BR.N.A.I.B.USD.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.BR.N.A.I.B.USD.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.BR.N.A.I.B.USD.2000-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.BR.N.A.I.B.771.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.BR.N.A.I.B.771.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.BR.N.A.I.B.771.2000-Q3</t>
   </si>
   <si>
     <t>Chile</t>
   </si>
   <si>
-    <t>Q.USD.CL.N.A.I.B.USD.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.CL.N.A.I.B.USD.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.CL.N.A.I.B.USD.2001-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.CL.N.A.I.B.771.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.CL.N.A.I.B.771.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.CL.N.A.I.B.771.2001-Q2</t>
+    <t>Q.USD.CL.N.A.I.B.USD.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.CL.N.A.I.B.USD.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.CL.N.A.I.B.USD.2000-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.CL.N.A.I.B.771.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.CL.N.A.I.B.771.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.CL.N.A.I.B.771.2000-Q3</t>
   </si>
   <si>
     <t>Mexico</t>
   </si>
   <si>
-    <t>Q.USD.MX.N.A.I.B.USD.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.MX.N.A.I.B.USD.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.MX.N.A.I.B.USD.2001-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.MX.N.A.I.B.771.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.MX.N.A.I.B.771.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.MX.N.A.I.B.771.2001-Q2</t>
+    <t>Q.USD.MX.N.A.I.B.USD.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.MX.N.A.I.B.USD.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.MX.N.A.I.B.USD.2000-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.MX.N.A.I.B.771.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.MX.N.A.I.B.771.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.MX.N.A.I.B.771.2000-Q3</t>
   </si>
   <si>
     <t>By instrument</t>
@@ -605,118 +611,118 @@
     <t>Bank loans</t>
   </si>
   <si>
-    <t>Q.USD.3P.N.B.I.G.USD.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.B.I.G.USD.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.B.I.G.USD.2001-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.B.I.G.771.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.B.I.G.771.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.B.I.G.771.2001-Q2</t>
+    <t>Q.USD.3P.N.B.I.G.USD.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.B.I.G.USD.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.B.I.G.USD.2000-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.B.I.G.771.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.B.I.G.771.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.B.I.G.771.2000-Q3</t>
   </si>
   <si>
     <t>Debt securities issues</t>
   </si>
   <si>
-    <t>Q.USD.3P.N.A.I.D.USD.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.D.USD.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.D.USD.2001-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.D.771.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.D.771.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.D.771.2001-Q2</t>
+    <t>Q.USD.3P.N.A.I.D.USD.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.D.USD.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.D.USD.2000-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.D.771.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.D.771.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.D.771.2000-Q3</t>
   </si>
   <si>
     <t>Of which: non-financial borrowers</t>
   </si>
   <si>
-    <t>Q.USD.3P.P.A.I.D.USD.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.P.A.I.D.USD.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.P.A.I.D.USD.2001-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.P.A.I.D.771.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.P.A.I.D.771.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.P.A.I.D.771.2001-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.B.I.G.USD.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.B.I.G.USD.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.B.I.G.USD.2001-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.B.I.G.771.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.B.I.G.771.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.B.I.G.771.2001-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.D.USD.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.D.USD.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.D.USD.2001-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.D.771.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.D.771.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.D.771.2001-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.P.A.I.D.USD.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.P.A.I.D.USD.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.P.A.I.D.USD.2001-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.P.A.I.D.771.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.P.A.I.D.771.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.P.A.I.D.771.2001-Q2</t>
+    <t>Q.USD.3P.P.A.I.D.USD.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.P.A.I.D.USD.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.P.A.I.D.USD.2000-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.P.A.I.D.771.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.P.A.I.D.771.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.P.A.I.D.771.2000-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.B.I.G.USD.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.B.I.G.USD.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.B.I.G.USD.2000-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.B.I.G.771.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.B.I.G.771.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.B.I.G.771.2000-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.D.USD.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.D.USD.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.D.USD.2000-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.D.771.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.D.771.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.D.771.2000-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.P.A.I.D.USD.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.P.A.I.D.USD.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.P.A.I.D.USD.2000-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.P.A.I.D.771.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.P.A.I.D.771.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.P.A.I.D.771.2000-Q3</t>
   </si>
   <si>
     <t>Memo: Borrowers in United States</t>
@@ -725,50 +731,50 @@
     <t>Non-financial borrowers</t>
   </si>
   <si>
-    <t>Q.USD.US.P.A.A.B.USD.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.US.P.A.A.B.USD.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.US.P.A.A.B.USD.2001-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.US.P.A.A.B.771.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.US.P.A.A.B.771.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.US.P.A.A.B.771.2001-Q2</t>
+    <t>Q.USD.US.P.A.A.B.USD.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.US.P.A.A.B.USD.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.US.P.A.A.B.USD.2000-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.US.P.A.A.B.771.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.US.P.A.A.B.771.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.US.P.A.A.B.771.2000-Q3</t>
   </si>
   <si>
     <t>Of which: government</t>
   </si>
   <si>
-    <t>Q.USD.US.G.A.A.B.USD.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.US.G.A.A.B.USD.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.US.G.A.A.B.USD.2001-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.US.G.A.A.B.771.2000-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.US.G.A.A.B.771.2001-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.US.G.A.A.B.771.2001-Q2</t>
+    <t>Q.USD.US.G.A.A.B.USD.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.US.G.A.A.B.USD.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.US.G.A.A.B.USD.2000-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.US.G.A.A.B.771.2000-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.US.G.A.A.B.771.2000-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.US.G.A.A.B.771.2000-Q3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -797,6 +803,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -822,17 +836,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -845,13 +855,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -872,7 +893,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Data_Portal_Logo.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Data_Portal_Logo.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -899,9 +926,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -939,7 +966,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -973,6 +1000,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1007,9 +1035,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1182,22 +1211,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="35.7109375" customWidth="1"/>
+    <col min="1" max="4" width="35.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="48" customHeight="1">
+    <row r="1" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1205,17 +1234,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1223,27 +1252,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1251,7 +1280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1259,7 +1288,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1267,7 +1296,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1275,7 +1304,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -1283,7 +1312,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -1291,7 +1320,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -1299,7 +1328,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
@@ -1309,9 +1338,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B20" r:id="rId1"/>
-    <hyperlink ref="B21" r:id="rId2"/>
-    <hyperlink ref="B22" r:id="rId3"/>
+    <hyperlink ref="B20" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B21" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B22" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId4"/>
@@ -1319,19 +1348,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
@@ -1342,7 +1371,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1350,7 +1379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1358,12 +1387,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1374,26 +1403,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>37</v>
       </c>
@@ -1413,704 +1444,704 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>39</v>
       </c>
       <c r="B3">
-        <v>2491.669699</v>
+        <v>2334.4424450000001</v>
       </c>
       <c r="C3">
-        <v>2579.801597</v>
+        <v>2351.855341</v>
       </c>
       <c r="D3">
-        <v>2604.091725</v>
+        <v>2395.9607040000001</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="G3">
-        <v>9.199999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="6" t="s">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B4">
-        <v>979.011438</v>
+        <v>952.37377700000002</v>
       </c>
       <c r="C4">
-        <v>991.047858</v>
+        <v>943.95553600000005</v>
       </c>
       <c r="D4">
-        <v>981.600208</v>
+        <v>968.23226</v>
       </c>
       <c r="E4">
-        <v>1.4</v>
+        <v>-5.4</v>
       </c>
       <c r="F4">
-        <v>3.4</v>
+        <v>-4.3</v>
       </c>
       <c r="G4">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="7" t="s">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B5">
-        <v>125.576416</v>
+        <v>123.483619</v>
       </c>
       <c r="C5">
-        <v>122.267372</v>
+        <v>123.58460700000001</v>
       </c>
       <c r="D5">
-        <v>120.085911</v>
+        <v>120.440747</v>
       </c>
       <c r="E5">
-        <v>-5.8</v>
+        <v>-2.6</v>
       </c>
       <c r="F5">
-        <v>-1.4</v>
+        <v>-2.4</v>
       </c>
       <c r="G5">
-        <v>-3.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="8" t="s">
+        <v>-5.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B6">
-        <v>10.562</v>
+        <v>11.726000000000001</v>
       </c>
       <c r="C6">
-        <v>10.062</v>
+        <v>11.327</v>
       </c>
       <c r="D6">
-        <v>9.411</v>
+        <v>11.074</v>
       </c>
       <c r="E6">
-        <v>-18.3</v>
+        <v>8.5</v>
       </c>
       <c r="F6">
-        <v>-14.1</v>
+        <v>1.8</v>
       </c>
       <c r="G6">
-        <v>-16.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="8" t="s">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B7">
-        <v>7.10031</v>
+        <v>6.7852800000000002</v>
       </c>
       <c r="C7">
-        <v>7.231637</v>
+        <v>7.8822799999999997</v>
       </c>
       <c r="D7">
-        <v>6.996637</v>
+        <v>7.2909730000000001</v>
       </c>
       <c r="E7">
-        <v>11.1</v>
+        <v>0.9</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>13.4</v>
       </c>
       <c r="G7">
-        <v>-11.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="7" t="s">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B8">
-        <v>309.398093</v>
+        <v>303.109982</v>
       </c>
       <c r="C8">
-        <v>310.268124</v>
+        <v>298.919916</v>
       </c>
       <c r="D8">
-        <v>310.223247</v>
+        <v>294.39362</v>
       </c>
       <c r="E8">
-        <v>-4.4</v>
+        <v>-14.2</v>
       </c>
       <c r="F8">
-        <v>-3.1</v>
+        <v>-11.2</v>
       </c>
       <c r="G8">
-        <v>-1.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="8" t="s">
+        <v>-7.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B9">
-        <v>13.881</v>
+        <v>16.878</v>
       </c>
       <c r="C9">
-        <v>13.711</v>
+        <v>14.75</v>
       </c>
       <c r="D9">
-        <v>17.525</v>
+        <v>14.275</v>
       </c>
       <c r="E9">
-        <v>-18.4</v>
+        <v>-18.7</v>
       </c>
       <c r="F9">
         <v>-18.8</v>
       </c>
       <c r="G9">
-        <v>18.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="8" t="s">
+        <v>-15.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B10">
-        <v>23.29098</v>
+        <v>7.2760899999999999</v>
       </c>
       <c r="C10">
-        <v>24.3048</v>
+        <v>6.5309799999999996</v>
       </c>
       <c r="D10">
-        <v>24.88733</v>
+        <v>6.1309800000000001</v>
       </c>
       <c r="E10">
+        <v>4.2</v>
+      </c>
+      <c r="F10">
         <v>-5</v>
       </c>
-      <c r="F10">
-        <v>-10.7</v>
-      </c>
       <c r="G10">
+        <v>-13.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11">
+        <v>9.55884</v>
+      </c>
+      <c r="C11">
+        <v>9.5848399999999998</v>
+      </c>
+      <c r="D11">
+        <v>10.085839999999999</v>
+      </c>
+      <c r="E11">
+        <v>-15.8</v>
+      </c>
+      <c r="F11">
+        <v>-13.9</v>
+      </c>
+      <c r="G11">
+        <v>-6.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12">
+        <v>18.759073999999998</v>
+      </c>
+      <c r="C12">
+        <v>18.084</v>
+      </c>
+      <c r="D12">
+        <v>17.061</v>
+      </c>
+      <c r="E12">
+        <v>-22.3</v>
+      </c>
+      <c r="F12">
+        <v>-22.9</v>
+      </c>
+      <c r="G12">
+        <v>-17.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13">
+        <v>29.056184999999999</v>
+      </c>
+      <c r="C13">
+        <v>33.661163000000002</v>
+      </c>
+      <c r="D13">
+        <v>32.944262999999999</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G13">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14">
+        <v>13.000296000000001</v>
+      </c>
+      <c r="C14">
+        <v>13.076962999999999</v>
+      </c>
+      <c r="D14">
+        <v>13.398614999999999</v>
+      </c>
+      <c r="E14">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>3.3</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15">
+        <v>84.459169000000003</v>
+      </c>
+      <c r="C15">
+        <v>85.903537999999998</v>
+      </c>
+      <c r="D15">
+        <v>103.990658</v>
+      </c>
+      <c r="E15">
+        <v>-3.7</v>
+      </c>
+      <c r="F15">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11">
-        <v>9.53684</v>
-      </c>
-      <c r="C11">
-        <v>9.133139999999999</v>
-      </c>
-      <c r="D11">
-        <v>8.83784</v>
-      </c>
-      <c r="E11">
-        <v>-10.3</v>
-      </c>
-      <c r="F11">
-        <v>-3.9</v>
-      </c>
-      <c r="G11">
-        <v>-7.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12">
-        <v>15.554</v>
-      </c>
-      <c r="C12">
-        <v>14.867</v>
-      </c>
-      <c r="D12">
-        <v>13.983</v>
-      </c>
-      <c r="E12">
-        <v>-21.4</v>
-      </c>
-      <c r="F12">
-        <v>-23.1</v>
-      </c>
-      <c r="G12">
-        <v>-24.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13">
-        <v>28.333755</v>
-      </c>
-      <c r="C13">
-        <v>31.719651</v>
-      </c>
-      <c r="D13">
-        <v>32.312328</v>
-      </c>
-      <c r="E13">
-        <v>5.3</v>
-      </c>
-      <c r="F13">
-        <v>8.4</v>
-      </c>
-      <c r="G13">
-        <v>-4.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14">
-        <v>13.788457</v>
-      </c>
-      <c r="C14">
-        <v>13.787491</v>
-      </c>
-      <c r="D14">
-        <v>14.617723</v>
-      </c>
-      <c r="E14">
-        <v>6.8</v>
-      </c>
-      <c r="F14">
-        <v>5.5</v>
-      </c>
-      <c r="G14">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B15">
-        <v>106.570692</v>
-      </c>
-      <c r="C15">
-        <v>107.177449</v>
-      </c>
-      <c r="D15">
-        <v>104.565691</v>
-      </c>
-      <c r="E15">
-        <v>26.7</v>
-      </c>
-      <c r="F15">
-        <v>28.8</v>
-      </c>
       <c r="G15">
-        <v>23.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="8" t="s">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
         <v>130</v>
       </c>
       <c r="B16">
-        <v>44.61399</v>
+        <v>23.709759999999999</v>
       </c>
       <c r="C16">
-        <v>43.78299</v>
+        <v>23.271090000000001</v>
       </c>
       <c r="D16">
-        <v>44.06799</v>
+        <v>44.437989999999999</v>
       </c>
       <c r="E16">
-        <v>85.09999999999999</v>
+        <v>-7.7</v>
       </c>
       <c r="F16">
-        <v>84.8</v>
+        <v>-4.2</v>
       </c>
       <c r="G16">
-        <v>89.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="8" t="s">
+        <v>81.599999999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
         <v>137</v>
       </c>
       <c r="B17">
-        <v>32.282649</v>
+        <v>19.706</v>
       </c>
       <c r="C17">
-        <v>31.582468</v>
+        <v>20.247</v>
       </c>
       <c r="D17">
-        <v>32.104938</v>
+        <v>21.622</v>
       </c>
       <c r="E17">
-        <v>39.9</v>
+        <v>24.4</v>
       </c>
       <c r="F17">
-        <v>20.3</v>
+        <v>31.9</v>
       </c>
       <c r="G17">
-        <v>19.7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="7" t="s">
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B18">
-        <v>437.466236</v>
+        <v>441.32100700000001</v>
       </c>
       <c r="C18">
-        <v>451.334914</v>
+        <v>435.54747400000002</v>
       </c>
       <c r="D18">
-        <v>446.725359</v>
+        <v>449.40723600000001</v>
       </c>
       <c r="E18">
+        <v>0.3</v>
+      </c>
+      <c r="F18">
+        <v>-1</v>
+      </c>
+      <c r="G18">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19">
+        <v>70.021410000000003</v>
+      </c>
+      <c r="C19">
+        <v>70.756174999999999</v>
+      </c>
+      <c r="D19">
+        <v>73.096868999999998</v>
+      </c>
+      <c r="E19">
+        <v>2.4</v>
+      </c>
+      <c r="F19">
+        <v>-0.4</v>
+      </c>
+      <c r="G19">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20">
+        <v>88.330822999999995</v>
+      </c>
+      <c r="C20">
+        <v>82.167919999999995</v>
+      </c>
+      <c r="D20">
+        <v>87.455682999999993</v>
+      </c>
+      <c r="E20">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F20">
+        <v>-4.2</v>
+      </c>
+      <c r="G20">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21">
+        <v>20.748349999999999</v>
+      </c>
+      <c r="C21">
+        <v>20.115349999999999</v>
+      </c>
+      <c r="D21">
+        <v>20.92435</v>
+      </c>
+      <c r="E21">
+        <v>1.5</v>
+      </c>
+      <c r="F21">
+        <v>-5.3</v>
+      </c>
+      <c r="G21">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B22">
+        <v>96.366606000000004</v>
+      </c>
+      <c r="C22">
+        <v>95.430896000000004</v>
+      </c>
+      <c r="D22">
+        <v>97.130370999999997</v>
+      </c>
+      <c r="E22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F22">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24">
+        <v>2334.4424450000001</v>
+      </c>
+      <c r="C24">
+        <v>2351.855341</v>
+      </c>
+      <c r="D24">
+        <v>2395.9607040000001</v>
+      </c>
+      <c r="E24">
+        <v>2.6</v>
+      </c>
+      <c r="F24">
         <v>2.7</v>
       </c>
-      <c r="F18">
-        <v>4.3</v>
-      </c>
-      <c r="G18">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B19">
-        <v>70.17434299999999</v>
-      </c>
-      <c r="C19">
-        <v>72.45505799999999</v>
-      </c>
-      <c r="D19">
-        <v>80.451781</v>
-      </c>
-      <c r="E19">
-        <v>3.7</v>
-      </c>
-      <c r="F19">
+      <c r="G24">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25">
+        <v>1249.8070909999999</v>
+      </c>
+      <c r="C25">
+        <v>1246.822578</v>
+      </c>
+      <c r="D25">
+        <v>1228.5630659999999</v>
+      </c>
+      <c r="E25">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="F25">
+        <v>-0.8</v>
+      </c>
+      <c r="G25">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B26">
+        <v>1084.635354</v>
+      </c>
+      <c r="C26">
+        <v>1105.032764</v>
+      </c>
+      <c r="D26">
+        <v>1167.397637</v>
+      </c>
+      <c r="E26">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F26">
+        <v>7</v>
+      </c>
+      <c r="G26">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B27">
+        <v>784.86982699999999</v>
+      </c>
+      <c r="C27">
+        <v>795.44444199999998</v>
+      </c>
+      <c r="D27">
+        <v>837.94395899999995</v>
+      </c>
+      <c r="E27">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F27">
+        <v>6.5</v>
+      </c>
+      <c r="G27">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28">
+        <v>952.37377700000002</v>
+      </c>
+      <c r="C28">
+        <v>943.95553600000005</v>
+      </c>
+      <c r="D28">
+        <v>968.23226</v>
+      </c>
+      <c r="E28">
+        <v>-5.4</v>
+      </c>
+      <c r="F28">
+        <v>-4.3</v>
+      </c>
+      <c r="G28">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B29">
+        <v>577.65262600000005</v>
+      </c>
+      <c r="C29">
+        <v>569.88933499999996</v>
+      </c>
+      <c r="D29">
+        <v>559.31313299999999</v>
+      </c>
+      <c r="E29">
+        <v>-13.1</v>
+      </c>
+      <c r="F29">
+        <v>-9.6</v>
+      </c>
+      <c r="G29">
+        <v>-8.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B30">
+        <v>374.72115100000002</v>
+      </c>
+      <c r="C30">
+        <v>374.06620099999998</v>
+      </c>
+      <c r="D30">
+        <v>408.919127</v>
+      </c>
+      <c r="E30">
+        <v>9.1</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B31">
+        <v>344.22763800000001</v>
+      </c>
+      <c r="C31">
+        <v>343.57144899999997</v>
+      </c>
+      <c r="D31">
+        <v>380.27044100000001</v>
+      </c>
+      <c r="E31">
+        <v>10.4</v>
+      </c>
+      <c r="F31">
         <v>5.6</v>
       </c>
-      <c r="G19">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B20">
-        <v>87.022068</v>
-      </c>
-      <c r="C20">
-        <v>89.245846</v>
-      </c>
-      <c r="D20">
-        <v>85.32290500000001</v>
-      </c>
-      <c r="E20">
-        <v>-1</v>
-      </c>
-      <c r="F20">
-        <v>0.3</v>
-      </c>
-      <c r="G20">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B21">
-        <v>20.29235</v>
-      </c>
-      <c r="C21">
-        <v>20.60335</v>
-      </c>
-      <c r="D21">
-        <v>21.03935</v>
-      </c>
-      <c r="E21">
-        <v>-1.3</v>
-      </c>
-      <c r="F21">
-        <v>-1.2</v>
-      </c>
-      <c r="G21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="B22">
-        <v>96.17424200000001</v>
-      </c>
-      <c r="C22">
-        <v>102.259999</v>
-      </c>
-      <c r="D22">
-        <v>98.853345</v>
-      </c>
-      <c r="E22">
-        <v>-1.6</v>
-      </c>
-      <c r="F22">
-        <v>6.7</v>
-      </c>
-      <c r="G22">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24">
-        <v>2491.669699</v>
-      </c>
-      <c r="C24">
-        <v>2579.801597</v>
-      </c>
-      <c r="D24">
-        <v>2604.091725</v>
-      </c>
-      <c r="E24">
-        <v>7</v>
-      </c>
-      <c r="F24">
-        <v>9</v>
-      </c>
-      <c r="G24">
-        <v>9.199999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B25">
-        <v>1297.562605</v>
-      </c>
-      <c r="C25">
-        <v>1350.701328</v>
-      </c>
-      <c r="D25">
-        <v>1358.554894</v>
-      </c>
-      <c r="E25">
-        <v>1.2</v>
-      </c>
-      <c r="F25">
-        <v>5.2</v>
-      </c>
-      <c r="G25">
+      <c r="G31">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B33">
+        <v>18547.098495999999</v>
+      </c>
+      <c r="C33">
+        <v>18721.280053999999</v>
+      </c>
+      <c r="D33">
+        <v>18924.514083999999</v>
+      </c>
+      <c r="E33">
+        <v>6.6</v>
+      </c>
+      <c r="F33">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B26">
-        <v>1194.107094</v>
-      </c>
-      <c r="C26">
-        <v>1229.100268</v>
-      </c>
-      <c r="D26">
-        <v>1245.536831</v>
-      </c>
-      <c r="E26">
-        <v>13.9</v>
-      </c>
-      <c r="F26">
-        <v>13.3</v>
-      </c>
-      <c r="G26">
-        <v>12.7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="B27">
-        <v>851.900108</v>
-      </c>
-      <c r="C27">
-        <v>869.3925850000001</v>
-      </c>
-      <c r="D27">
-        <v>876.844145</v>
-      </c>
-      <c r="E27">
-        <v>12.4</v>
-      </c>
-      <c r="F27">
-        <v>10.8</v>
-      </c>
-      <c r="G27">
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28">
-        <v>979.011438</v>
-      </c>
-      <c r="C28">
-        <v>991.047858</v>
-      </c>
-      <c r="D28">
-        <v>981.600208</v>
-      </c>
-      <c r="E28">
-        <v>1.4</v>
-      </c>
-      <c r="F28">
-        <v>3.4</v>
-      </c>
-      <c r="G28">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B29">
-        <v>571.8178360000001</v>
-      </c>
-      <c r="C29">
-        <v>576.680377</v>
-      </c>
-      <c r="D29">
-        <v>566.448884</v>
-      </c>
-      <c r="E29">
-        <v>-5.5</v>
-      </c>
-      <c r="F29">
-        <v>-1.3</v>
-      </c>
-      <c r="G29">
-        <v>-1.8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B30">
-        <v>407.193602</v>
-      </c>
-      <c r="C30">
-        <v>414.367481</v>
-      </c>
-      <c r="D30">
-        <v>415.151324</v>
-      </c>
-      <c r="E30">
-        <v>12.7</v>
-      </c>
-      <c r="F30">
-        <v>10.6</v>
-      </c>
-      <c r="G30">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="B31">
-        <v>376.910972</v>
-      </c>
-      <c r="C31">
-        <v>384.431024</v>
-      </c>
-      <c r="D31">
-        <v>385.552146</v>
-      </c>
-      <c r="E31">
-        <v>13.8</v>
-      </c>
-      <c r="F31">
-        <v>11.7</v>
-      </c>
-      <c r="G31">
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="B33">
-        <v>19076.33409</v>
-      </c>
-      <c r="C33">
-        <v>19309.380513</v>
-      </c>
-      <c r="D33">
-        <v>19552.671001</v>
-      </c>
-      <c r="E33">
-        <v>4.4</v>
-      </c>
-      <c r="F33">
-        <v>3.9</v>
-      </c>
       <c r="G33">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="7" t="s">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
         <v>227</v>
       </c>
       <c r="B34">
-        <v>5287.917</v>
+        <v>5500.4849999999997</v>
       </c>
       <c r="C34">
-        <v>5352.462</v>
+        <v>5393.8360000000002</v>
       </c>
       <c r="D34">
-        <v>5278.636</v>
+        <v>5333.8209999999999</v>
       </c>
       <c r="E34">
-        <v>-4.7</v>
+        <v>-0.7</v>
       </c>
       <c r="F34">
         <v>-2.7</v>
       </c>
       <c r="G34">
-        <v>-2.1</v>
+        <v>-3.6</v>
       </c>
     </row>
   </sheetData>
@@ -2123,26 +2154,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>37</v>
       </c>
@@ -2162,8 +2193,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>39</v>
       </c>
       <c r="B3" t="s">
@@ -2185,8 +2216,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B4" t="s">
@@ -2208,8 +2239,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B5" t="s">
@@ -2231,8 +2262,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B6" t="s">
@@ -2254,8 +2285,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B7" t="s">
@@ -2277,8 +2308,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B8" t="s">
@@ -2300,8 +2331,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B9" t="s">
@@ -2323,8 +2354,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B10" t="s">
@@ -2346,8 +2377,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
         <v>95</v>
       </c>
       <c r="B11" t="s">
@@ -2369,8 +2400,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
         <v>102</v>
       </c>
       <c r="B12" t="s">
@@ -2392,8 +2423,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
         <v>109</v>
       </c>
       <c r="B13" t="s">
@@ -2415,8 +2446,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
         <v>116</v>
       </c>
       <c r="B14" t="s">
@@ -2438,8 +2469,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
         <v>123</v>
       </c>
       <c r="B15" t="s">
@@ -2461,8 +2492,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
         <v>130</v>
       </c>
       <c r="B16" t="s">
@@ -2484,8 +2515,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
         <v>137</v>
       </c>
       <c r="B17" t="s">
@@ -2507,8 +2538,8 @@
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B18" t="s">
@@ -2530,8 +2561,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
         <v>151</v>
       </c>
       <c r="B19" t="s">
@@ -2553,8 +2584,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
         <v>158</v>
       </c>
       <c r="B20" t="s">
@@ -2576,8 +2607,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
         <v>165</v>
       </c>
       <c r="B21" t="s">
@@ -2599,8 +2630,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
         <v>172</v>
       </c>
       <c r="B22" t="s">
@@ -2622,13 +2653,13 @@
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B24" t="s">
@@ -2650,8 +2681,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
         <v>180</v>
       </c>
       <c r="B25" t="s">
@@ -2673,8 +2704,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
         <v>187</v>
       </c>
       <c r="B26" t="s">
@@ -2696,8 +2727,8 @@
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
         <v>194</v>
       </c>
       <c r="B27" t="s">
@@ -2719,8 +2750,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B28" t="s">
@@ -2742,8 +2773,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="6" t="s">
         <v>180</v>
       </c>
       <c r="B29" t="s">
@@ -2765,8 +2796,8 @@
         <v>206</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="6" t="s">
         <v>187</v>
       </c>
       <c r="B30" t="s">
@@ -2788,8 +2819,8 @@
         <v>212</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
         <v>194</v>
       </c>
       <c r="B31" t="s">
@@ -2811,13 +2842,13 @@
         <v>218</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
         <v>220</v>
       </c>
       <c r="B33" t="s">
@@ -2839,8 +2870,8 @@
         <v>226</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="7" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
         <v>227</v>
       </c>
       <c r="B34" t="s">
